--- a/게임Scene진행(130626).xlsx
+++ b/게임Scene진행(130626).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18315" windowHeight="11655" firstSheet="1" activeTab="20"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="271">
   <si>
     <t>로고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,11 +1108,15 @@
     <t>…재료 카드 선택 일 때, 카드 강화를 시도한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>afafdafaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -6260,7 +6264,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6304,7 +6308,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6353,7 +6357,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6376,14 +6380,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6426,7 +6430,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6449,14 +6453,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6735,7 +6739,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6770,7 +6773,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6946,7 +6948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7203,7 +7205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8227,7 +8229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9312,7 +9314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10290,7 +10292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11280,7 +11282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12311,7 +12313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13316,7 +13318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14341,7 +14343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15357,7 +15359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -16362,7 +16364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17377,7 +17379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17617,7 +17619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18644,11 +18646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18859,7 +18861,9 @@
         <v>44</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>270</v>
+      </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -19647,7 +19651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20666,7 +20670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -21679,7 +21683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22686,7 +22690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22771,7 +22775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23914,7 +23918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24884,7 +24888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25713,7 +25717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -26541,7 +26545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -27521,7 +27525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28569,7 +28573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
